--- a/geometry map.xlsx
+++ b/geometry map.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,6 +487,9 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2">
         <v>5</v>
       </c>
@@ -520,6 +523,9 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
       <c r="E3">
         <v>5</v>
       </c>
@@ -551,6 +557,9 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
